--- a/predicciones_365_dias.xlsx
+++ b/predicciones_365_dias.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>28/10/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,30 +477,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -509,12 +509,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,21 +523,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,21 +546,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -569,21 +569,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,21 +592,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -615,21 +615,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>28/11/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,30 +638,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27/11/2025</t>
+          <t>02/12/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.2</v>
+        <v>12.4</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,21 +684,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -707,21 +707,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -730,21 +730,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -753,67 +753,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19/12/2025</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="E17" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -845,21 +845,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7.7</v>
+        <v>10.3</v>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09/01/2026</t>
+          <t>25/01/2026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -868,62 +868,62 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="E19" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>02/02/2026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>05/02/2026</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24/01/2026</t>
+          <t>14/02/2026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -933,48 +933,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="E22" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29/01/2026</t>
+          <t>15/02/2026</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="E23" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/02/2026</t>
+          <t>19/02/2026</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -983,21 +983,21 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="E24" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06/02/2026</t>
+          <t>21/02/2026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1006,21 +1006,21 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="E25" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11/02/2026</t>
+          <t>27/02/2026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16/02/2026</t>
+          <t>28/02/2026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1052,62 +1052,62 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="E27" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19/02/2026</t>
+          <t>04/03/2026</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25/02/2026</t>
+          <t>05/03/2026</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="E29" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26/02/2026</t>
+          <t>12/03/2026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,43 +1117,43 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="E30" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>27/02/2026</t>
+          <t>16/03/2026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="E31" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>17/03/2026</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1167,21 +1167,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06/03/2026</t>
+          <t>21/03/2026</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1193,18 +1193,18 @@
         <v>7.8</v>
       </c>
       <c r="E33" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12/03/2026</t>
+          <t>24/03/2026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1213,16 +1213,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="E34" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20/03/2026</t>
+          <t>27/03/2026</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,62 +1236,62 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="E35" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21/03/2026</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="E36" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25/03/2026</t>
+          <t>07/04/2026</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.2</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/04/2026</t>
+          <t>08/04/2026</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1305,21 +1305,21 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03/04/2026</t>
+          <t>13/04/2026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1328,21 +1328,21 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10/04/2026</t>
+          <t>19/04/2026</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1351,21 +1351,21 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14/04/2026</t>
+          <t>25/04/2026</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1374,113 +1374,113 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19/04/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24/04/2026</t>
+          <t>06/05/2026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26/04/2026</t>
+          <t>11/05/2026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="E44" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>29/04/2026</t>
+          <t>17/05/2026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06/05/2026</t>
+          <t>22/05/2026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1489,16 +1489,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12/05/2026</t>
+          <t>26/05/2026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1512,113 +1512,113 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13/05/2026</t>
+          <t>01/06/2026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="E48" t="n">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20/05/2026</t>
+          <t>08/06/2026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="E49" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24/05/2026</t>
+          <t>11/06/2026</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>25/05/2026</t>
+          <t>19/06/2026</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="E51" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>02/06/2026</t>
+          <t>20/06/2026</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1627,21 +1627,21 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13.1</v>
+        <v>10.4</v>
       </c>
       <c r="E52" t="n">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06/06/2026</t>
+          <t>23/06/2026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1650,21 +1650,21 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10.5</v>
+        <v>13.1</v>
       </c>
       <c r="E53" t="n">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>13/06/2026</t>
+          <t>28/06/2026</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1673,90 +1673,90 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="E54" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20/06/2026</t>
+          <t>02/07/2026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="E55" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>24/06/2026</t>
+          <t>09/07/2026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13.1</v>
+        <v>11.2</v>
       </c>
       <c r="E56" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27/06/2026</t>
+          <t>15/07/2026</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10.5</v>
+        <v>12.4</v>
       </c>
       <c r="E57" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01/07/2026</t>
+          <t>21/07/2026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1765,21 +1765,21 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E58" t="n">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08/07/2026</t>
+          <t>27/07/2026</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1788,21 +1788,21 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E59" t="n">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14/07/2026</t>
+          <t>30/07/2026</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1811,39 +1811,39 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12.8</v>
+        <v>11.2</v>
       </c>
       <c r="E60" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20/07/2026</t>
+          <t>05/08/2026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E61" t="n">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>26/07/2026</t>
+          <t>09/08/2026</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,48 +1853,48 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="E62" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30/07/2026</t>
+          <t>12/08/2026</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E63" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>02/08/2026</t>
+          <t>15/08/2026</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1903,21 +1903,21 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="E64" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>07/08/2026</t>
+          <t>19/08/2026</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1926,16 +1926,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="E65" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>13/08/2026</t>
+          <t>20/08/2026</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1949,21 +1949,21 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E66" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16/08/2026</t>
+          <t>26/08/2026</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1972,113 +1972,113 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10.2</v>
+        <v>12.4</v>
       </c>
       <c r="E67" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21/08/2026</t>
+          <t>03/09/2026</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="E68" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>23/08/2026</t>
+          <t>09/09/2026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E69" t="n">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>28/08/2026</t>
+          <t>10/09/2026</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="E70" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>31/08/2026</t>
+          <t>15/09/2026</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="E71" t="n">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06/09/2026</t>
+          <t>21/09/2026</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="E72" t="n">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11/09/2026</t>
+          <t>22/09/2026</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2110,21 +2110,21 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="E73" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14/09/2026</t>
+          <t>26/09/2026</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2133,90 +2133,90 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>21/09/2026</t>
+          <t>01/10/2026</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="E75" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>24/09/2026</t>
+          <t>02/10/2026</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30/09/2026</t>
+          <t>09/10/2026</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>08/10/2026</t>
+          <t>10/10/2026</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2225,21 +2225,21 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>15/10/2026</t>
+          <t>12/10/2026</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2248,21 +2248,21 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E79" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>19/10/2026</t>
+          <t>20/10/2026</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E80" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/predicciones_365_dias.xlsx
+++ b/predicciones_365_dias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,21 +477,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.6</v>
+        <v>9.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>03/11/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,21 +500,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>08/11/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,21 +523,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.6</v>
+        <v>7.6</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,21 +546,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -569,21 +569,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,21 +592,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.6</v>
+        <v>7.6</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>27/11/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -615,21 +615,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28/11/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
@@ -647,30 +647,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02/12/2025</t>
+          <t>30/11/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.4</v>
+        <v>7.6</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>12.4</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -707,21 +707,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>15/12/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -730,21 +730,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>12.4</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,59 +756,59 @@
         <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>20/12/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7.8</v>
+        <v>12.4</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="E17" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -845,21 +845,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25/01/2026</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -868,39 +868,39 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02/02/2026</t>
+          <t>16/01/2026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05/02/2026</t>
+          <t>22/01/2026</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -910,71 +910,71 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14/02/2026</t>
+          <t>26/01/2026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="E22" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15/02/2026</t>
+          <t>29/01/2026</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19/02/2026</t>
+          <t>01/02/2026</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -983,21 +983,21 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="E24" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21/02/2026</t>
+          <t>05/02/2026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1006,21 +1006,21 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27/02/2026</t>
+          <t>09/02/2026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="E26" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>28/02/2026</t>
+          <t>11/02/2026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1052,39 +1052,39 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="E27" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04/03/2026</t>
+          <t>15/02/2026</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10.3</v>
+        <v>7.2</v>
       </c>
       <c r="E28" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05/03/2026</t>
+          <t>19/02/2026</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1094,20 +1094,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12/03/2026</t>
+          <t>26/02/2026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,25 +1117,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16/03/2026</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17/03/2026</t>
+          <t>08/03/2026</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1167,21 +1167,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
       <c r="E32" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21/03/2026</t>
+          <t>12/03/2026</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="E33" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24/03/2026</t>
+          <t>17/03/2026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,16 +1213,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27/03/2026</t>
+          <t>20/03/2026</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,44 +1236,44 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="E35" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02/04/2026</t>
+          <t>23/03/2026</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07/04/2026</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1282,21 +1282,21 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>8.1</v>
       </c>
       <c r="E37" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>08/04/2026</t>
+          <t>11/04/2026</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="E38" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1328,21 +1328,21 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19/04/2026</t>
+          <t>20/04/2026</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E40" t="n">
         <v>174</v>
@@ -1374,44 +1374,44 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>30/04/2026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>8.1</v>
       </c>
       <c r="E42" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06/05/2026</t>
+          <t>02/05/2026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1420,21 +1420,21 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="E43" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11/05/2026</t>
+          <t>07/05/2026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1443,21 +1443,21 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="E44" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>17/05/2026</t>
+          <t>16/05/2026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1466,21 +1466,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="E45" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22/05/2026</t>
+          <t>24/05/2026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1489,21 +1489,21 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="E46" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>26/05/2026</t>
+          <t>29/05/2026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1512,44 +1512,44 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="E47" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/06/2026</t>
+          <t>30/05/2026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13.1</v>
+        <v>7.2</v>
       </c>
       <c r="E48" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08/06/2026</t>
+          <t>02/06/2026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1558,21 +1558,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11/06/2026</t>
+          <t>09/06/2026</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1584,13 +1584,13 @@
         <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19/06/2026</t>
+          <t>12/06/2026</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1604,21 +1604,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="E51" t="n">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20/06/2026</t>
+          <t>17/06/2026</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1627,21 +1627,21 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23/06/2026</t>
+          <t>26/06/2026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1650,21 +1650,21 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13.1</v>
+        <v>10.8</v>
       </c>
       <c r="E53" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>28/06/2026</t>
+          <t>29/06/2026</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
         <v>244</v>
@@ -1682,12 +1682,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>02/07/2026</t>
+          <t>04/07/2026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>11.2</v>
+        <v>7.7</v>
       </c>
       <c r="E55" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09/07/2026</t>
+          <t>14/07/2026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1719,21 +1719,21 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="E56" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>15/07/2026</t>
+          <t>20/07/2026</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1742,21 +1742,21 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12.4</v>
+        <v>10.7</v>
       </c>
       <c r="E57" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>21/07/2026</t>
+          <t>26/07/2026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1765,67 +1765,67 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12.4</v>
+        <v>7.7</v>
       </c>
       <c r="E58" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>27/07/2026</t>
+          <t>01/08/2026</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12.4</v>
+        <v>7.4</v>
       </c>
       <c r="E59" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30/07/2026</t>
+          <t>08/08/2026</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11.2</v>
+        <v>7.4</v>
       </c>
       <c r="E60" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>10/08/2026</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1834,21 +1834,21 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12.4</v>
+        <v>10.3</v>
       </c>
       <c r="E61" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>09/08/2026</t>
+          <t>15/08/2026</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1857,21 +1857,21 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="E62" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12/08/2026</t>
+          <t>21/08/2026</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1880,21 +1880,21 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15/08/2026</t>
+          <t>23/08/2026</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1903,21 +1903,21 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="E64" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>19/08/2026</t>
+          <t>27/08/2026</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1926,16 +1926,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>12.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20/08/2026</t>
+          <t>03/09/2026</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1945,48 +1945,48 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>11.2</v>
+        <v>8.4</v>
       </c>
       <c r="E66" t="n">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>26/08/2026</t>
+          <t>10/09/2026</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>12.4</v>
+        <v>8.4</v>
       </c>
       <c r="E67" t="n">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03/09/2026</t>
+          <t>13/09/2026</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1995,21 +1995,21 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="E68" t="n">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>09/09/2026</t>
+          <t>17/09/2026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2018,21 +2018,21 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>11.6</v>
+        <v>8.4</v>
       </c>
       <c r="E69" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10/09/2026</t>
+          <t>25/09/2026</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2041,39 +2041,39 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="E70" t="n">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>15/09/2026</t>
+          <t>01/10/2026</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>11.6</v>
+        <v>9.1</v>
       </c>
       <c r="E71" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21/09/2026</t>
+          <t>05/10/2026</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2083,20 +2083,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="E72" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22/09/2026</t>
+          <t>13/10/2026</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2106,20 +2106,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="E73" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>26/09/2026</t>
+          <t>17/10/2026</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2129,25 +2129,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E74" t="n">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01/10/2026</t>
+          <t>19/10/2026</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2156,21 +2156,21 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="E75" t="n">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>02/10/2026</t>
+          <t>20/10/2026</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2179,21 +2179,21 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="E76" t="n">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>09/10/2026</t>
+          <t>25/10/2026</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2202,79 +2202,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="E77" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>10/10/2026</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>12/10/2026</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E79" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>20/10/2026</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E80" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
